--- a/Supplementary_Tables/Table S2.xlsx
+++ b/Supplementary_Tables/Table S2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes Submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65CAB61D-E727-6245-BF66-0CB1524587A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4E01810-130C-464A-86B1-C70188F734C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="3400" windowWidth="37620" windowHeight="20120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Table S2: ATAC-seq quality control metrics for the 19 islets</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Date.Sequenced</t>
+  </si>
+  <si>
+    <t>Sequencing Depth</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,9 +338,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,31 +624,29 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="8" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -667,22 +667,22 @@
         <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
@@ -711,22 +711,22 @@
         <v>15</v>
       </c>
       <c r="F3" s="1">
+        <v>104175819</v>
+      </c>
+      <c r="G3" s="1">
         <v>77189774</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>8743601</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1760027</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>337988</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>32462</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="L3" s="1">
         <v>30358</v>
@@ -755,22 +755,22 @@
         <v>15</v>
       </c>
       <c r="F4" s="1">
+        <v>105576462</v>
+      </c>
+      <c r="G4" s="1">
         <v>52235249</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>9824653</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1852438</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>89622</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>38418</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="1">
         <v>36044</v>
@@ -799,22 +799,22 @@
         <v>15</v>
       </c>
       <c r="F5" s="1">
+        <v>121318440</v>
+      </c>
+      <c r="G5" s="1">
         <v>67334746</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>9089980</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1508333</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>304179</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>36577</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="1">
         <v>34183</v>
@@ -843,22 +843,22 @@
         <v>41319</v>
       </c>
       <c r="F6" s="1">
+        <v>75559724</v>
+      </c>
+      <c r="G6" s="1">
         <v>41738276</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>6462896</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>877970</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>175345</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>44379</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L6" s="1">
         <v>41411</v>
@@ -887,22 +887,22 @@
         <v>41319</v>
       </c>
       <c r="F7" s="1">
+        <v>116017866</v>
+      </c>
+      <c r="G7" s="1">
         <v>77073277</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>7113341</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3408414</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>213578</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>40729</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="L7" s="1">
         <v>36715</v>
@@ -931,22 +931,22 @@
         <v>41319</v>
       </c>
       <c r="F8" s="1">
+        <v>73061363</v>
+      </c>
+      <c r="G8" s="1">
         <v>34192601</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>6908003</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1145245</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>57257</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>47337</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="1">
         <v>43841</v>
@@ -975,22 +975,22 @@
         <v>41319</v>
       </c>
       <c r="F9" s="1">
+        <v>82342147</v>
+      </c>
+      <c r="G9" s="1">
         <v>49352216</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>7373972</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1897855</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>96671</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>44977</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L9" s="1">
         <v>41422</v>
@@ -1019,22 +1019,22 @@
         <v>41408</v>
       </c>
       <c r="F10" s="1">
+        <v>107504838</v>
+      </c>
+      <c r="G10" s="1">
         <v>84272145</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>6513505</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1980281</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>349602</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>64103</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L10" s="1">
         <v>60987</v>
@@ -1063,22 +1063,22 @@
         <v>41439</v>
       </c>
       <c r="F11" s="1">
+        <v>118815168</v>
+      </c>
+      <c r="G11" s="1">
         <v>98962882</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>8081462</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>3812443</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>194601</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>73501</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="L11" s="1">
         <v>69646</v>
@@ -1107,22 +1107,22 @@
         <v>41592</v>
       </c>
       <c r="F12" s="1">
+        <v>113351628</v>
+      </c>
+      <c r="G12" s="1">
         <v>81082775</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>7909912</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>1844146</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>378402</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>48217</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="L12" s="1">
         <v>43062</v>
@@ -1151,22 +1151,22 @@
         <v>41439</v>
       </c>
       <c r="F13" s="1">
+        <v>127000328</v>
+      </c>
+      <c r="G13" s="1">
         <v>80309766</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>9163644</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>1850381</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>328989</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>61616</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L13" s="1">
         <v>58527</v>
@@ -1195,22 +1195,22 @@
         <v>41531</v>
       </c>
       <c r="F14" s="1">
+        <v>125771226</v>
+      </c>
+      <c r="G14" s="1">
         <v>43928488</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>6802755</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1015081</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>159626</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>74651</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="L14" s="1">
         <v>69284</v>
@@ -1239,22 +1239,22 @@
         <v>41531</v>
       </c>
       <c r="F15" s="1">
+        <v>121905912</v>
+      </c>
+      <c r="G15" s="1">
         <v>38654444</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>6410345</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>862126</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>142272</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>74384</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="L15" s="1">
         <v>69657</v>
@@ -1283,22 +1283,22 @@
         <v>41592</v>
       </c>
       <c r="F16" s="1">
+        <v>135857857</v>
+      </c>
+      <c r="G16" s="1">
         <v>66967768</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>6893758</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>2779930</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>152576</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>50915</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="L16" s="1">
         <v>46863</v>
@@ -1327,22 +1327,22 @@
         <v>41408</v>
       </c>
       <c r="F17" s="1">
+        <v>110252412</v>
+      </c>
+      <c r="G17" s="1">
         <v>76397096</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>6858624</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>1884117</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>297251</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>77489</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="L17" s="1">
         <v>70940</v>
@@ -1371,22 +1371,22 @@
         <v>41592</v>
       </c>
       <c r="F18" s="1">
+        <v>96291242</v>
+      </c>
+      <c r="G18" s="1">
         <v>57145088</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>6516755</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>2126566</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>124800</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>47268</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="L18" s="1">
         <v>44094</v>
@@ -1415,22 +1415,22 @@
         <v>41592</v>
       </c>
       <c r="F19" s="1">
+        <v>127276569</v>
+      </c>
+      <c r="G19" s="1">
         <v>54300484</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>7460490</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>1785283</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>92923</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>62094</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="L19" s="1">
         <v>58480</v>
@@ -1459,22 +1459,22 @@
         <v>41320</v>
       </c>
       <c r="F20" s="1">
+        <v>117209568</v>
+      </c>
+      <c r="G20" s="1">
         <v>39360841</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>9635934</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>815964</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>120849</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>57931</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="L20" s="1">
         <v>54956</v>
@@ -1503,22 +1503,22 @@
         <v>41320</v>
       </c>
       <c r="F21" s="1">
+        <v>111067324</v>
+      </c>
+      <c r="G21" s="1">
         <v>68111351</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>7917722</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>1618334</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>286281</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>52422</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="L21" s="1">
         <v>49388</v>
@@ -1541,6 +1541,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
